--- a/src/main/resources/tablePrize.xlsx
+++ b/src/main/resources/tablePrize.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">一等奖笔记本</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">gLz4H2xZ8XxkXlDDGdd8Fd2xF35kjX.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四等奖现金红包haha</t>
   </si>
 </sst>
 </file>
@@ -52,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,12 +77,14 @@
       <color rgb="FF2A00FF"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2A00FF"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,17 +219,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,6 +253,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/main/resources/tablePrize.xlsx
+++ b/src/main/resources/tablePrize.xlsx
@@ -222,14 +222,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,7 +256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>

--- a/src/main/resources/tablePrize.xlsx
+++ b/src/main/resources/tablePrize.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">gLz4H2xZ8XxkXlDDGdd8Fd2xF35kjX.png</t>
   </si>
   <si>
-    <t xml:space="preserve">四等奖现金红包haha</t>
+    <t xml:space="preserve">四等奖现金红包haha四等奖现金红包haha四等奖现金红包haha</t>
   </si>
 </sst>
 </file>
@@ -50,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,6 +85,12 @@
       <name val="Monospace"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +135,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -139,6 +145,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,14 +232,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -257,7 +267,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">

--- a/src/main/resources/tablePrize.xlsx
+++ b/src/main/resources/tablePrize.xlsx
@@ -50,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,12 +85,6 @@
       <name val="Monospace"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +129,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,10 +139,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,17 +219,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.0459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,6 +239,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -257,6 +250,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -265,13 +261,19 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
